--- a/Assets/DB/ServeQuestDB.xlsx
+++ b/Assets/DB/ServeQuestDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalProject\Assets\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalBuild\Assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C67E49-00E4-4273-B5B8-B9B9A76DE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5364C-6AC1-4292-A1B5-CE6EC0F8B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21555" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="0" yWindow="1245" windowWidth="21555" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1071,11 +1071,11 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1">
-        <v>10202002</v>
+      <c r="F3">
+        <v>10114101</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1162,12 +1162,8 @@
       <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5</v>
-      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1">
         <v>10114101</v>
       </c>
@@ -1339,7 +1335,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="J10">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1508,6 +1504,12 @@
         <v>67</v>
       </c>
       <c r="F15" s="1"/>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
       <c r="N15" s="1">
         <v>10114102</v>
       </c>
@@ -1535,6 +1537,12 @@
         <v>68</v>
       </c>
       <c r="F16" s="1"/>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
@@ -1562,6 +1570,12 @@
         <v>68</v>
       </c>
       <c r="F17" s="1"/>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
@@ -1589,6 +1603,12 @@
         <v>74</v>
       </c>
       <c r="F18" s="1"/>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
@@ -1648,6 +1668,12 @@
         <v>82</v>
       </c>
       <c r="F20" s="1"/>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>

--- a/Assets/DB/ServeQuestDB.xlsx
+++ b/Assets/DB/ServeQuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalBuild\Assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5364C-6AC1-4292-A1B5-CE6EC0F8B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9775B111-73BA-4D23-8F46-E0AA655ED3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1245" windowWidth="21555" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1117,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="K4" s="1">
         <v>5</v>
@@ -1157,7 +1157,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -1243,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>10161000</v>
       </c>
       <c r="P7" t="s">
         <v>33</v>
@@ -1335,19 +1335,19 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="J10">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>10161000</v>
       </c>
       <c r="P10" t="s">
         <v>43</v>
@@ -1411,7 +1411,7 @@
         <v>10161000</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N12" s="1">
         <v>10114104</v>
@@ -1440,7 +1440,7 @@
         <v>66</v>
       </c>
       <c r="F13" s="1">
-        <v>10110000</v>
+        <v>10202001</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="J15">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1538,13 +1538,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="J16">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>10161000</v>
       </c>
       <c r="P16" t="s">
         <v>61</v>
@@ -1571,13 +1571,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="J17">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>10161000</v>
       </c>
       <c r="P17" t="s">
         <v>64</v>
@@ -1604,13 +1604,19 @@
       </c>
       <c r="F18" s="1"/>
       <c r="J18">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
+      <c r="L18">
+        <v>301</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>10161000</v>
       </c>
       <c r="P18" t="s">
         <v>75</v>
@@ -1669,7 +1675,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="J20">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="K20">
         <v>5</v>

--- a/Assets/DB/ServeQuestDB.xlsx
+++ b/Assets/DB/ServeQuestDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalBuild\Assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9775B111-73BA-4D23-8F46-E0AA655ED3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF5CAA-B154-4E4D-9D0B-127FE970341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="4170" yWindow="1395" windowWidth="21555" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1681,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>10161000</v>
       </c>
       <c r="P20" t="s">
         <v>83</v>

--- a/Assets/DB/ServeQuestDB.xlsx
+++ b/Assets/DB/ServeQuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalBuild\Assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF5CAA-B154-4E4D-9D0B-127FE970341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA4F85-F5AC-4378-8F2F-FA452B2F86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1395" windowWidth="21555" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1340,12 +1340,6 @@
       <c r="K10">
         <v>10</v>
       </c>
-      <c r="L10">
-        <v>304</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
       <c r="N10" s="1">
         <v>10161000</v>
       </c>
@@ -1607,12 +1601,6 @@
         <v>305</v>
       </c>
       <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>301</v>
-      </c>
-      <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" s="1">

--- a/Assets/DB/ServeQuestDB.xlsx
+++ b/Assets/DB/ServeQuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalBuild\Assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA4F85-F5AC-4378-8F2F-FA452B2F86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A09848C-74E9-4C30-B583-41F52A24A072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="4170" yWindow="1395" windowWidth="21555" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1367,7 @@
         <v>71</v>
       </c>
       <c r="F11" s="1">
-        <v>10202008</v>
+        <v>10102008</v>
       </c>
       <c r="G11">
         <v>1</v>
